--- a/data/movie_data.xlsx
+++ b/data/movie_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="150">
   <si>
     <t>grade_score</t>
   </si>
@@ -169,9 +169,6 @@
     <t>45642640</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>1720244</t>
   </si>
   <si>
@@ -182,9 +179,6 @@
   </si>
   <si>
     <t>kupi0fnxf08erac</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
   <si>
     <t>bp3dxidteswzzfu</t>
@@ -994,8 +988,8 @@
       <c r="E2" t="n">
         <v>109</v>
       </c>
-      <c r="F2" t="s">
-        <v>51</v>
+      <c r="F2" t="n">
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1135,7 +1129,7 @@
     </row>
     <row r="3" spans="1:51">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="n">
         <v>7.5</v>
@@ -1149,8 +1143,8 @@
       <c r="E3" t="n">
         <v>12</v>
       </c>
-      <c r="F3" t="s">
-        <v>51</v>
+      <c r="F3" t="n">
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
@@ -1290,7 +1284,7 @@
     </row>
     <row r="4" spans="1:51">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" t="n">
         <v>7.2</v>
@@ -1304,8 +1298,8 @@
       <c r="E4" t="n">
         <v>108</v>
       </c>
-      <c r="F4" t="s">
-        <v>51</v>
+      <c r="F4" t="n">
+        <v>1</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1445,7 +1439,7 @@
     </row>
     <row r="5" spans="1:51">
       <c r="A5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" t="n">
         <v>7.7</v>
@@ -1459,8 +1453,8 @@
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="s">
-        <v>51</v>
+      <c r="F5" t="n">
+        <v>1</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
@@ -1600,7 +1594,7 @@
     </row>
     <row r="6" spans="1:51">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B6" t="n">
         <v>5.61101</v>
@@ -1614,8 +1608,8 @@
       <c r="E6" t="n">
         <v>88</v>
       </c>
-      <c r="F6" t="s">
-        <v>56</v>
+      <c r="F6" t="n">
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1755,7 +1749,7 @@
     </row>
     <row r="7" spans="1:51">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" t="n">
         <v>6.21101</v>
@@ -1769,8 +1763,8 @@
       <c r="E7" t="n">
         <v>105</v>
       </c>
-      <c r="F7" t="s">
-        <v>56</v>
+      <c r="F7" t="n">
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1910,7 +1904,7 @@
     </row>
     <row r="8" spans="1:51">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" t="n">
         <v>6.72675</v>
@@ -1924,8 +1918,8 @@
       <c r="E8" t="n">
         <v>83</v>
       </c>
-      <c r="F8" t="s">
-        <v>56</v>
+      <c r="F8" t="n">
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -2065,7 +2059,7 @@
     </row>
     <row r="9" spans="1:51">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" t="n">
         <v>8.5</v>
@@ -2079,8 +2073,8 @@
       <c r="E9" t="n">
         <v>80</v>
       </c>
-      <c r="F9" t="s">
-        <v>51</v>
+      <c r="F9" t="n">
+        <v>1</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -2220,7 +2214,7 @@
     </row>
     <row r="10" spans="1:51">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" t="n">
         <v>6.51101</v>
@@ -2234,8 +2228,8 @@
       <c r="E10" t="n">
         <v>113</v>
       </c>
-      <c r="F10" t="s">
-        <v>56</v>
+      <c r="F10" t="n">
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2375,7 +2369,7 @@
     </row>
     <row r="11" spans="1:51">
       <c r="A11" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" t="n">
         <v>6.51101</v>
@@ -2389,8 +2383,8 @@
       <c r="E11" t="n">
         <v>80</v>
       </c>
-      <c r="F11" t="s">
-        <v>56</v>
+      <c r="F11" t="n">
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -2530,7 +2524,7 @@
     </row>
     <row r="12" spans="1:51">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" t="n">
         <v>7.97157</v>
@@ -2544,8 +2538,8 @@
       <c r="E12" t="n">
         <v>101</v>
       </c>
-      <c r="F12" t="s">
-        <v>56</v>
+      <c r="F12" t="n">
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -2685,7 +2679,7 @@
     </row>
     <row r="13" spans="1:51">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" t="n">
         <v>8</v>
@@ -2699,8 +2693,8 @@
       <c r="E13" t="n">
         <v>111</v>
       </c>
-      <c r="F13" t="s">
-        <v>51</v>
+      <c r="F13" t="n">
+        <v>1</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -2840,7 +2834,7 @@
     </row>
     <row r="14" spans="1:51">
       <c r="A14" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B14" t="n">
         <v>6.9</v>
@@ -2854,8 +2848,8 @@
       <c r="E14" t="n">
         <v>110</v>
       </c>
-      <c r="F14" t="s">
-        <v>51</v>
+      <c r="F14" t="n">
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -2995,7 +2989,7 @@
     </row>
     <row r="15" spans="1:51">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" t="n">
         <v>7</v>
@@ -3009,8 +3003,8 @@
       <c r="E15" t="n">
         <v>104</v>
       </c>
-      <c r="F15" t="s">
-        <v>51</v>
+      <c r="F15" t="n">
+        <v>1</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -3150,7 +3144,7 @@
     </row>
     <row r="16" spans="1:51">
       <c r="A16" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" t="n">
         <v>7.6</v>
@@ -3164,8 +3158,8 @@
       <c r="E16" t="n">
         <v>92</v>
       </c>
-      <c r="F16" t="s">
-        <v>51</v>
+      <c r="F16" t="n">
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -3305,7 +3299,7 @@
     </row>
     <row r="17" spans="1:51">
       <c r="A17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" t="n">
         <v>9.300000000000001</v>
@@ -3319,8 +3313,8 @@
       <c r="E17" t="n">
         <v>86</v>
       </c>
-      <c r="F17" t="s">
-        <v>51</v>
+      <c r="F17" t="n">
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -3460,7 +3454,7 @@
     </row>
     <row r="18" spans="1:51">
       <c r="A18" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" t="n">
         <v>6.8</v>
@@ -3474,8 +3468,8 @@
       <c r="E18" t="n">
         <v>94</v>
       </c>
-      <c r="F18" t="s">
-        <v>51</v>
+      <c r="F18" t="n">
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -3615,7 +3609,7 @@
     </row>
     <row r="19" spans="1:51">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" t="n">
         <v>6.6</v>
@@ -3629,8 +3623,8 @@
       <c r="E19" t="n">
         <v>127</v>
       </c>
-      <c r="F19" t="s">
-        <v>51</v>
+      <c r="F19" t="n">
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -3770,7 +3764,7 @@
     </row>
     <row r="20" spans="1:51">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" t="n">
         <v>7.3</v>
@@ -3784,8 +3778,8 @@
       <c r="E20" t="n">
         <v>100</v>
       </c>
-      <c r="F20" t="s">
-        <v>51</v>
+      <c r="F20" t="n">
+        <v>1</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -3925,7 +3919,7 @@
     </row>
     <row r="21" spans="1:51">
       <c r="A21" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B21" t="n">
         <v>7.6</v>
@@ -3939,8 +3933,8 @@
       <c r="E21" t="n">
         <v>96</v>
       </c>
-      <c r="F21" t="s">
-        <v>51</v>
+      <c r="F21" t="n">
+        <v>1</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -4080,7 +4074,7 @@
     </row>
     <row r="22" spans="1:51">
       <c r="A22" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" t="n">
         <v>7.7</v>
@@ -4094,8 +4088,8 @@
       <c r="E22" t="n">
         <v>90</v>
       </c>
-      <c r="F22" t="s">
-        <v>51</v>
+      <c r="F22" t="n">
+        <v>1</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -4235,7 +4229,7 @@
     </row>
     <row r="23" spans="1:51">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B23" t="n">
         <v>6.8</v>
@@ -4249,8 +4243,8 @@
       <c r="E23" t="n">
         <v>97</v>
       </c>
-      <c r="F23" t="s">
-        <v>51</v>
+      <c r="F23" t="n">
+        <v>1</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -4390,7 +4384,7 @@
     </row>
     <row r="24" spans="1:51">
       <c r="A24" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" t="n">
         <v>7.6</v>
@@ -4404,8 +4398,8 @@
       <c r="E24" t="n">
         <v>121</v>
       </c>
-      <c r="F24" t="s">
-        <v>51</v>
+      <c r="F24" t="n">
+        <v>1</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -4545,7 +4539,7 @@
     </row>
     <row r="25" spans="1:51">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B25" t="n">
         <v>7.3</v>
@@ -4559,8 +4553,8 @@
       <c r="E25" t="n">
         <v>95</v>
       </c>
-      <c r="F25" t="s">
-        <v>51</v>
+      <c r="F25" t="n">
+        <v>1</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -4700,7 +4694,7 @@
     </row>
     <row r="26" spans="1:51">
       <c r="A26" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B26" t="n">
         <v>6.9</v>
@@ -4714,8 +4708,8 @@
       <c r="E26" t="n">
         <v>128</v>
       </c>
-      <c r="F26" t="s">
-        <v>51</v>
+      <c r="F26" t="n">
+        <v>1</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -4855,7 +4849,7 @@
     </row>
     <row r="27" spans="1:51">
       <c r="A27" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B27" t="n">
         <v>8.800000000000001</v>
@@ -4869,8 +4863,8 @@
       <c r="E27" t="n">
         <v>30</v>
       </c>
-      <c r="F27" t="s">
-        <v>51</v>
+      <c r="F27" t="n">
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -5010,7 +5004,7 @@
     </row>
     <row r="28" spans="1:51">
       <c r="A28" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B28" t="n">
         <v>7</v>
@@ -5024,8 +5018,8 @@
       <c r="E28" t="n">
         <v>84</v>
       </c>
-      <c r="F28" t="s">
-        <v>56</v>
+      <c r="F28" t="n">
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -5165,7 +5159,7 @@
     </row>
     <row r="29" spans="1:51">
       <c r="A29" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B29" t="n">
         <v>7.67842</v>
@@ -5179,8 +5173,8 @@
       <c r="E29" t="n">
         <v>92</v>
       </c>
-      <c r="F29" t="s">
-        <v>51</v>
+      <c r="F29" t="n">
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -5320,7 +5314,7 @@
     </row>
     <row r="30" spans="1:51">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B30" t="n">
         <v>6.51101</v>
@@ -5334,8 +5328,8 @@
       <c r="E30" t="n">
         <v>133</v>
       </c>
-      <c r="F30" t="s">
-        <v>51</v>
+      <c r="F30" t="n">
+        <v>1</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -5475,7 +5469,7 @@
     </row>
     <row r="31" spans="1:51">
       <c r="A31" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B31" t="n">
         <v>8.199999999999999</v>
@@ -5489,8 +5483,8 @@
       <c r="E31" t="n">
         <v>70</v>
       </c>
-      <c r="F31" t="s">
-        <v>56</v>
+      <c r="F31" t="n">
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -5630,7 +5624,7 @@
     </row>
     <row r="32" spans="1:51">
       <c r="A32" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B32" t="n">
         <v>6.7</v>
@@ -5644,8 +5638,8 @@
       <c r="E32" t="n">
         <v>63</v>
       </c>
-      <c r="F32" t="s">
-        <v>51</v>
+      <c r="F32" t="n">
+        <v>1</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -5785,7 +5779,7 @@
     </row>
     <row r="33" spans="1:51">
       <c r="A33" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B33" t="n">
         <v>6.1</v>
@@ -5799,8 +5793,8 @@
       <c r="E33" t="n">
         <v>123</v>
       </c>
-      <c r="F33" t="s">
-        <v>51</v>
+      <c r="F33" t="n">
+        <v>1</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -5940,7 +5934,7 @@
     </row>
     <row r="34" spans="1:51">
       <c r="A34" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B34" t="n">
         <v>6.9</v>
@@ -5954,8 +5948,8 @@
       <c r="E34" t="n">
         <v>99</v>
       </c>
-      <c r="F34" t="s">
-        <v>51</v>
+      <c r="F34" t="n">
+        <v>1</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -6095,7 +6089,7 @@
     </row>
     <row r="35" spans="1:51">
       <c r="A35" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B35" t="n">
         <v>6.6</v>
@@ -6109,8 +6103,8 @@
       <c r="E35" t="n">
         <v>150</v>
       </c>
-      <c r="F35" t="s">
-        <v>51</v>
+      <c r="F35" t="n">
+        <v>1</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -6250,7 +6244,7 @@
     </row>
     <row r="36" spans="1:51">
       <c r="A36" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B36" t="n">
         <v>6.61101</v>
@@ -6264,8 +6258,8 @@
       <c r="E36" t="n">
         <v>95</v>
       </c>
-      <c r="F36" t="s">
-        <v>56</v>
+      <c r="F36" t="n">
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -6405,7 +6399,7 @@
     </row>
     <row r="37" spans="1:51">
       <c r="A37" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B37" t="n">
         <v>6.51101</v>
@@ -6419,8 +6413,8 @@
       <c r="E37" t="n">
         <v>70</v>
       </c>
-      <c r="F37" t="s">
-        <v>56</v>
+      <c r="F37" t="n">
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -6560,7 +6554,7 @@
     </row>
     <row r="38" spans="1:51">
       <c r="A38" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B38" t="n">
         <v>6.31101</v>
@@ -6574,8 +6568,8 @@
       <c r="E38" t="n">
         <v>100</v>
       </c>
-      <c r="F38" t="s">
-        <v>56</v>
+      <c r="F38" t="n">
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -6715,7 +6709,7 @@
     </row>
     <row r="39" spans="1:51">
       <c r="A39" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B39" t="n">
         <v>5.91101</v>
@@ -6729,8 +6723,8 @@
       <c r="E39" t="n">
         <v>99</v>
       </c>
-      <c r="F39" t="s">
-        <v>56</v>
+      <c r="F39" t="n">
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -6870,7 +6864,7 @@
     </row>
     <row r="40" spans="1:51">
       <c r="A40" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B40" t="n">
         <v>6.31101</v>
@@ -6884,8 +6878,8 @@
       <c r="E40" t="n">
         <v>90</v>
       </c>
-      <c r="F40" t="s">
-        <v>56</v>
+      <c r="F40" t="n">
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -7025,7 +7019,7 @@
     </row>
     <row r="41" spans="1:51">
       <c r="A41" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B41" t="n">
         <v>7.18182</v>
@@ -7039,8 +7033,8 @@
       <c r="E41" t="n">
         <v>96</v>
       </c>
-      <c r="F41" t="s">
-        <v>56</v>
+      <c r="F41" t="n">
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -7180,7 +7174,7 @@
     </row>
     <row r="42" spans="1:51">
       <c r="A42" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B42" t="n">
         <v>7.9</v>
@@ -7194,8 +7188,8 @@
       <c r="E42" t="n">
         <v>13</v>
       </c>
-      <c r="F42" t="s">
-        <v>51</v>
+      <c r="F42" t="n">
+        <v>1</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -7335,7 +7329,7 @@
     </row>
     <row r="43" spans="1:51">
       <c r="A43" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B43" t="n">
         <v>7.1</v>
@@ -7349,8 +7343,8 @@
       <c r="E43" t="n">
         <v>89</v>
       </c>
-      <c r="F43" t="s">
-        <v>51</v>
+      <c r="F43" t="n">
+        <v>1</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -7490,7 +7484,7 @@
     </row>
     <row r="44" spans="1:51">
       <c r="A44" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B44" t="n">
         <v>8.800000000000001</v>
@@ -7504,8 +7498,8 @@
       <c r="E44" t="n">
         <v>8</v>
       </c>
-      <c r="F44" t="s">
-        <v>51</v>
+      <c r="F44" t="n">
+        <v>1</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -7645,7 +7639,7 @@
     </row>
     <row r="45" spans="1:51">
       <c r="A45" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B45" t="n">
         <v>8.800000000000001</v>
@@ -7659,8 +7653,8 @@
       <c r="E45" t="n">
         <v>10</v>
       </c>
-      <c r="F45" t="s">
-        <v>51</v>
+      <c r="F45" t="n">
+        <v>1</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -7800,7 +7794,7 @@
     </row>
     <row r="46" spans="1:51">
       <c r="A46" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B46" t="n">
         <v>7.9</v>
@@ -7814,8 +7808,8 @@
       <c r="E46" t="n">
         <v>9</v>
       </c>
-      <c r="F46" t="s">
-        <v>51</v>
+      <c r="F46" t="n">
+        <v>1</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -7955,7 +7949,7 @@
     </row>
     <row r="47" spans="1:51">
       <c r="A47" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B47" t="n">
         <v>8</v>
@@ -7969,8 +7963,8 @@
       <c r="E47" t="n">
         <v>11</v>
       </c>
-      <c r="F47" t="s">
-        <v>51</v>
+      <c r="F47" t="n">
+        <v>1</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -8110,7 +8104,7 @@
     </row>
     <row r="48" spans="1:51">
       <c r="A48" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B48" t="n">
         <v>8</v>
@@ -8124,8 +8118,8 @@
       <c r="E48" t="n">
         <v>8</v>
       </c>
-      <c r="F48" t="s">
-        <v>51</v>
+      <c r="F48" t="n">
+        <v>1</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -8265,7 +8259,7 @@
     </row>
     <row r="49" spans="1:51">
       <c r="A49" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B49" t="n">
         <v>8</v>
@@ -8279,8 +8273,8 @@
       <c r="E49" t="n">
         <v>9</v>
       </c>
-      <c r="F49" t="s">
-        <v>51</v>
+      <c r="F49" t="n">
+        <v>1</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -8420,7 +8414,7 @@
     </row>
     <row r="50" spans="1:51">
       <c r="A50" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B50" t="n">
         <v>7.4</v>
@@ -8434,8 +8428,8 @@
       <c r="E50" t="n">
         <v>7</v>
       </c>
-      <c r="F50" t="s">
-        <v>51</v>
+      <c r="F50" t="n">
+        <v>1</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -8575,7 +8569,7 @@
     </row>
     <row r="51" spans="1:51">
       <c r="A51" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B51" t="n">
         <v>8.800000000000001</v>
@@ -8589,8 +8583,8 @@
       <c r="E51" t="n">
         <v>8</v>
       </c>
-      <c r="F51" t="s">
-        <v>51</v>
+      <c r="F51" t="n">
+        <v>1</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -8730,7 +8724,7 @@
     </row>
     <row r="52" spans="1:51">
       <c r="A52" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B52" t="n">
         <v>7.1</v>
@@ -8744,8 +8738,8 @@
       <c r="E52" t="n">
         <v>10</v>
       </c>
-      <c r="F52" t="s">
-        <v>51</v>
+      <c r="F52" t="n">
+        <v>1</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -8885,7 +8879,7 @@
     </row>
     <row r="53" spans="1:51">
       <c r="A53" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B53" t="n">
         <v>8.800000000000001</v>
@@ -8899,8 +8893,8 @@
       <c r="E53" t="n">
         <v>9</v>
       </c>
-      <c r="F53" t="s">
-        <v>51</v>
+      <c r="F53" t="n">
+        <v>1</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -9040,7 +9034,7 @@
     </row>
     <row r="54" spans="1:51">
       <c r="A54" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B54" t="n">
         <v>8.800000000000001</v>
@@ -9054,8 +9048,8 @@
       <c r="E54" t="n">
         <v>10</v>
       </c>
-      <c r="F54" t="s">
-        <v>51</v>
+      <c r="F54" t="n">
+        <v>1</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -9195,7 +9189,7 @@
     </row>
     <row r="55" spans="1:51">
       <c r="A55" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B55" t="n">
         <v>8.800000000000001</v>
@@ -9209,8 +9203,8 @@
       <c r="E55" t="n">
         <v>8</v>
       </c>
-      <c r="F55" t="s">
-        <v>51</v>
+      <c r="F55" t="n">
+        <v>1</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -9350,7 +9344,7 @@
     </row>
     <row r="56" spans="1:51">
       <c r="A56" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B56" t="n">
         <v>8.800000000000001</v>
@@ -9364,8 +9358,8 @@
       <c r="E56" t="n">
         <v>8</v>
       </c>
-      <c r="F56" t="s">
-        <v>51</v>
+      <c r="F56" t="n">
+        <v>1</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -9505,7 +9499,7 @@
     </row>
     <row r="57" spans="1:51">
       <c r="A57" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B57" t="n">
         <v>7.1</v>
@@ -9519,8 +9513,8 @@
       <c r="E57" t="n">
         <v>131</v>
       </c>
-      <c r="F57" t="s">
-        <v>51</v>
+      <c r="F57" t="n">
+        <v>1</v>
       </c>
       <c r="G57" t="n">
         <v>0</v>
@@ -9660,7 +9654,7 @@
     </row>
     <row r="58" spans="1:51">
       <c r="A58" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B58" t="n">
         <v>7.5</v>
@@ -9674,8 +9668,8 @@
       <c r="E58" t="n">
         <v>8</v>
       </c>
-      <c r="F58" t="s">
-        <v>51</v>
+      <c r="F58" t="n">
+        <v>1</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -9815,7 +9809,7 @@
     </row>
     <row r="59" spans="1:51">
       <c r="A59" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B59" t="n">
         <v>6.3</v>
@@ -9829,8 +9823,8 @@
       <c r="E59" t="n">
         <v>9</v>
       </c>
-      <c r="F59" t="s">
-        <v>51</v>
+      <c r="F59" t="n">
+        <v>1</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -9970,7 +9964,7 @@
     </row>
     <row r="60" spans="1:51">
       <c r="A60" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B60" t="n">
         <v>6.4</v>
@@ -9984,8 +9978,8 @@
       <c r="E60" t="n">
         <v>11</v>
       </c>
-      <c r="F60" t="s">
-        <v>51</v>
+      <c r="F60" t="n">
+        <v>1</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -10125,7 +10119,7 @@
     </row>
     <row r="61" spans="1:51">
       <c r="A61" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B61" t="n">
         <v>7.6</v>
@@ -10139,8 +10133,8 @@
       <c r="E61" t="n">
         <v>12</v>
       </c>
-      <c r="F61" t="s">
-        <v>51</v>
+      <c r="F61" t="n">
+        <v>1</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -10280,7 +10274,7 @@
     </row>
     <row r="62" spans="1:51">
       <c r="A62" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B62" t="n">
         <v>7.6</v>
@@ -10294,8 +10288,8 @@
       <c r="E62" t="n">
         <v>12</v>
       </c>
-      <c r="F62" t="s">
-        <v>51</v>
+      <c r="F62" t="n">
+        <v>1</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -10435,7 +10429,7 @@
     </row>
     <row r="63" spans="1:51">
       <c r="A63" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B63" t="n">
         <v>7.1</v>
@@ -10449,8 +10443,8 @@
       <c r="E63" t="n">
         <v>10</v>
       </c>
-      <c r="F63" t="s">
-        <v>51</v>
+      <c r="F63" t="n">
+        <v>1</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -10590,7 +10584,7 @@
     </row>
     <row r="64" spans="1:51">
       <c r="A64" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B64" t="n">
         <v>6.4</v>
@@ -10604,8 +10598,8 @@
       <c r="E64" t="n">
         <v>119</v>
       </c>
-      <c r="F64" t="s">
-        <v>51</v>
+      <c r="F64" t="n">
+        <v>1</v>
       </c>
       <c r="G64" t="n">
         <v>0</v>
@@ -10745,7 +10739,7 @@
     </row>
     <row r="65" spans="1:51">
       <c r="A65" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B65" t="n">
         <v>6.2</v>
@@ -10759,8 +10753,8 @@
       <c r="E65" t="n">
         <v>102</v>
       </c>
-      <c r="F65" t="s">
-        <v>51</v>
+      <c r="F65" t="n">
+        <v>1</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -10900,7 +10894,7 @@
     </row>
     <row r="66" spans="1:51">
       <c r="A66" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B66" t="n">
         <v>6.9</v>
@@ -10914,8 +10908,8 @@
       <c r="E66" t="n">
         <v>99</v>
       </c>
-      <c r="F66" t="s">
-        <v>51</v>
+      <c r="F66" t="n">
+        <v>1</v>
       </c>
       <c r="G66" t="n">
         <v>0</v>
@@ -11055,7 +11049,7 @@
     </row>
     <row r="67" spans="1:51">
       <c r="A67" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B67" t="n">
         <v>7.3</v>
@@ -11069,8 +11063,8 @@
       <c r="E67" t="n">
         <v>121</v>
       </c>
-      <c r="F67" t="s">
-        <v>51</v>
+      <c r="F67" t="n">
+        <v>1</v>
       </c>
       <c r="G67" t="n">
         <v>0</v>
@@ -11210,7 +11204,7 @@
     </row>
     <row r="68" spans="1:51">
       <c r="A68" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B68" t="n">
         <v>6</v>
@@ -11224,8 +11218,8 @@
       <c r="E68" t="n">
         <v>63</v>
       </c>
-      <c r="F68" t="s">
-        <v>51</v>
+      <c r="F68" t="n">
+        <v>1</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -11365,7 +11359,7 @@
     </row>
     <row r="69" spans="1:51">
       <c r="A69" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B69" t="n">
         <v>7.6</v>
@@ -11379,8 +11373,8 @@
       <c r="E69" t="n">
         <v>60</v>
       </c>
-      <c r="F69" t="s">
-        <v>51</v>
+      <c r="F69" t="n">
+        <v>1</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -11520,7 +11514,7 @@
     </row>
     <row r="70" spans="1:51">
       <c r="A70" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B70" t="n">
         <v>6.6</v>
@@ -11534,8 +11528,8 @@
       <c r="E70" t="n">
         <v>73</v>
       </c>
-      <c r="F70" t="s">
-        <v>51</v>
+      <c r="F70" t="n">
+        <v>1</v>
       </c>
       <c r="G70" t="n">
         <v>0</v>
@@ -11675,7 +11669,7 @@
     </row>
     <row r="71" spans="1:51">
       <c r="A71" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B71" t="n">
         <v>6.1</v>
@@ -11689,8 +11683,8 @@
       <c r="E71" t="n">
         <v>88</v>
       </c>
-      <c r="F71" t="s">
-        <v>51</v>
+      <c r="F71" t="n">
+        <v>1</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -11830,7 +11824,7 @@
     </row>
     <row r="72" spans="1:51">
       <c r="A72" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B72" t="n">
         <v>7.8</v>
@@ -11844,8 +11838,8 @@
       <c r="E72" t="n">
         <v>95</v>
       </c>
-      <c r="F72" t="s">
-        <v>51</v>
+      <c r="F72" t="n">
+        <v>1</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -11985,7 +11979,7 @@
     </row>
     <row r="73" spans="1:51">
       <c r="A73" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B73" t="n">
         <v>6.2</v>
@@ -11999,8 +11993,8 @@
       <c r="E73" t="n">
         <v>84</v>
       </c>
-      <c r="F73" t="s">
-        <v>51</v>
+      <c r="F73" t="n">
+        <v>1</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -12140,7 +12134,7 @@
     </row>
     <row r="74" spans="1:51">
       <c r="A74" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B74" t="n">
         <v>7.1</v>
@@ -12154,8 +12148,8 @@
       <c r="E74" t="n">
         <v>102</v>
       </c>
-      <c r="F74" t="s">
-        <v>56</v>
+      <c r="F74" t="n">
+        <v>0</v>
       </c>
       <c r="G74" t="n">
         <v>0</v>
@@ -12295,7 +12289,7 @@
     </row>
     <row r="75" spans="1:51">
       <c r="A75" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B75" t="n">
         <v>6.01101</v>
@@ -12309,8 +12303,8 @@
       <c r="E75" t="n">
         <v>125</v>
       </c>
-      <c r="F75" t="s">
-        <v>56</v>
+      <c r="F75" t="n">
+        <v>0</v>
       </c>
       <c r="G75" t="n">
         <v>0</v>
@@ -12450,7 +12444,7 @@
     </row>
     <row r="76" spans="1:51">
       <c r="A76" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B76" t="n">
         <v>8.800000000000001</v>
@@ -12464,8 +12458,8 @@
       <c r="E76" t="n">
         <v>9</v>
       </c>
-      <c r="F76" t="s">
-        <v>51</v>
+      <c r="F76" t="n">
+        <v>1</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -12605,7 +12599,7 @@
     </row>
     <row r="77" spans="1:51">
       <c r="A77" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B77" t="n">
         <v>6.01101</v>
@@ -12619,8 +12613,8 @@
       <c r="E77" t="n">
         <v>87</v>
       </c>
-      <c r="F77" t="s">
-        <v>51</v>
+      <c r="F77" t="n">
+        <v>1</v>
       </c>
       <c r="G77" t="n">
         <v>0</v>
@@ -12760,7 +12754,7 @@
     </row>
     <row r="78" spans="1:51">
       <c r="A78" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B78" t="n">
         <v>6.41101</v>
@@ -12774,8 +12768,8 @@
       <c r="E78" t="n">
         <v>106</v>
       </c>
-      <c r="F78" t="s">
-        <v>56</v>
+      <c r="F78" t="n">
+        <v>0</v>
       </c>
       <c r="G78" t="n">
         <v>0</v>
@@ -12915,7 +12909,7 @@
     </row>
     <row r="79" spans="1:51">
       <c r="A79" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B79" t="n">
         <v>9.12884</v>
@@ -12929,8 +12923,8 @@
       <c r="E79" t="n">
         <v>85</v>
       </c>
-      <c r="F79" t="s">
-        <v>56</v>
+      <c r="F79" t="n">
+        <v>0</v>
       </c>
       <c r="G79" t="n">
         <v>0</v>
@@ -13070,7 +13064,7 @@
     </row>
     <row r="80" spans="1:51">
       <c r="A80" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B80" t="n">
         <v>5.8</v>
@@ -13084,8 +13078,8 @@
       <c r="E80" t="n">
         <v>63</v>
       </c>
-      <c r="F80" t="s">
-        <v>51</v>
+      <c r="F80" t="n">
+        <v>1</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -13225,7 +13219,7 @@
     </row>
     <row r="81" spans="1:51">
       <c r="A81" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B81" t="n">
         <v>3.69149</v>
@@ -13239,8 +13233,8 @@
       <c r="E81" t="n">
         <v>75</v>
       </c>
-      <c r="F81" t="s">
-        <v>56</v>
+      <c r="F81" t="n">
+        <v>0</v>
       </c>
       <c r="G81" t="n">
         <v>0</v>
@@ -13380,7 +13374,7 @@
     </row>
     <row r="82" spans="1:51">
       <c r="A82" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B82" t="n">
         <v>6.61101</v>
@@ -13394,8 +13388,8 @@
       <c r="E82" t="n">
         <v>22</v>
       </c>
-      <c r="F82" t="s">
-        <v>56</v>
+      <c r="F82" t="n">
+        <v>0</v>
       </c>
       <c r="G82" t="n">
         <v>0</v>
@@ -13535,7 +13529,7 @@
     </row>
     <row r="83" spans="1:51">
       <c r="A83" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B83" t="n">
         <v>6.8</v>
@@ -13549,8 +13543,8 @@
       <c r="E83" t="n">
         <v>90</v>
       </c>
-      <c r="F83" t="s">
-        <v>56</v>
+      <c r="F83" t="n">
+        <v>0</v>
       </c>
       <c r="G83" t="n">
         <v>0</v>
@@ -13690,7 +13684,7 @@
     </row>
     <row r="84" spans="1:51">
       <c r="A84" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B84" t="n">
         <v>7.8</v>
@@ -13704,8 +13698,8 @@
       <c r="E84" t="n">
         <v>109</v>
       </c>
-      <c r="F84" t="s">
-        <v>51</v>
+      <c r="F84" t="n">
+        <v>1</v>
       </c>
       <c r="G84" t="n">
         <v>0</v>
@@ -13845,7 +13839,7 @@
     </row>
     <row r="85" spans="1:51">
       <c r="A85" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B85" t="n">
         <v>6.1</v>
@@ -13859,8 +13853,8 @@
       <c r="E85" t="n">
         <v>107</v>
       </c>
-      <c r="F85" t="s">
-        <v>51</v>
+      <c r="F85" t="n">
+        <v>1</v>
       </c>
       <c r="G85" t="n">
         <v>0</v>
@@ -14000,7 +13994,7 @@
     </row>
     <row r="86" spans="1:51">
       <c r="A86" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B86" t="n">
         <v>8.9</v>
@@ -14014,8 +14008,8 @@
       <c r="E86" t="n">
         <v>69</v>
       </c>
-      <c r="F86" t="s">
-        <v>51</v>
+      <c r="F86" t="n">
+        <v>1</v>
       </c>
       <c r="G86" t="n">
         <v>0</v>
@@ -14155,7 +14149,7 @@
     </row>
     <row r="87" spans="1:51">
       <c r="A87" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B87" t="n">
         <v>6.9</v>
@@ -14169,8 +14163,8 @@
       <c r="E87" t="n">
         <v>60</v>
       </c>
-      <c r="F87" t="s">
-        <v>51</v>
+      <c r="F87" t="n">
+        <v>1</v>
       </c>
       <c r="G87" t="n">
         <v>0</v>
@@ -14310,7 +14304,7 @@
     </row>
     <row r="88" spans="1:51">
       <c r="A88" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B88" t="n">
         <v>4.21101</v>
@@ -14324,8 +14318,8 @@
       <c r="E88" t="n">
         <v>90</v>
       </c>
-      <c r="F88" t="s">
-        <v>51</v>
+      <c r="F88" t="n">
+        <v>1</v>
       </c>
       <c r="G88" t="n">
         <v>0</v>
@@ -14465,7 +14459,7 @@
     </row>
     <row r="89" spans="1:51">
       <c r="A89" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B89" t="n">
         <v>3.85619</v>
@@ -14479,8 +14473,8 @@
       <c r="E89" t="n">
         <v>94</v>
       </c>
-      <c r="F89" t="s">
-        <v>56</v>
+      <c r="F89" t="n">
+        <v>0</v>
       </c>
       <c r="G89" t="n">
         <v>0</v>
@@ -14620,7 +14614,7 @@
     </row>
     <row r="90" spans="1:51">
       <c r="A90" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B90" t="n">
         <v>6.51101</v>
@@ -14634,8 +14628,8 @@
       <c r="E90" t="n">
         <v>93</v>
       </c>
-      <c r="F90" t="s">
-        <v>51</v>
+      <c r="F90" t="n">
+        <v>1</v>
       </c>
       <c r="G90" t="n">
         <v>0</v>
@@ -14775,7 +14769,7 @@
     </row>
     <row r="91" spans="1:51">
       <c r="A91" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B91" t="n">
         <v>3.23641</v>
@@ -14789,8 +14783,8 @@
       <c r="E91" t="n">
         <v>97</v>
       </c>
-      <c r="F91" t="s">
-        <v>56</v>
+      <c r="F91" t="n">
+        <v>0</v>
       </c>
       <c r="G91" t="n">
         <v>0</v>
@@ -14930,7 +14924,7 @@
     </row>
     <row r="92" spans="1:51">
       <c r="A92" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B92" t="n">
         <v>8.4</v>
@@ -14944,8 +14938,8 @@
       <c r="E92" t="n">
         <v>144</v>
       </c>
-      <c r="F92" t="s">
-        <v>51</v>
+      <c r="F92" t="n">
+        <v>1</v>
       </c>
       <c r="G92" t="n">
         <v>0</v>
@@ -15085,7 +15079,7 @@
     </row>
     <row r="93" spans="1:51">
       <c r="A93" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B93" t="n">
         <v>8.1</v>
@@ -15099,8 +15093,8 @@
       <c r="E93" t="n">
         <v>128</v>
       </c>
-      <c r="F93" t="s">
-        <v>51</v>
+      <c r="F93" t="n">
+        <v>1</v>
       </c>
       <c r="G93" t="n">
         <v>0</v>
@@ -15240,7 +15234,7 @@
     </row>
     <row r="94" spans="1:51">
       <c r="A94" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B94" t="n">
         <v>8.300000000000001</v>
@@ -15254,8 +15248,8 @@
       <c r="E94" t="n">
         <v>98</v>
       </c>
-      <c r="F94" t="s">
-        <v>51</v>
+      <c r="F94" t="n">
+        <v>1</v>
       </c>
       <c r="G94" t="n">
         <v>0</v>
@@ -15395,7 +15389,7 @@
     </row>
     <row r="95" spans="1:51">
       <c r="A95" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B95" t="n">
         <v>6.96942</v>
@@ -15409,8 +15403,8 @@
       <c r="E95" t="n">
         <v>80</v>
       </c>
-      <c r="F95" t="s">
-        <v>56</v>
+      <c r="F95" t="n">
+        <v>0</v>
       </c>
       <c r="G95" t="n">
         <v>0</v>
@@ -15550,7 +15544,7 @@
     </row>
     <row r="96" spans="1:51">
       <c r="A96" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B96" t="n">
         <v>6.41101</v>
@@ -15564,8 +15558,8 @@
       <c r="E96" t="n">
         <v>97</v>
       </c>
-      <c r="F96" t="s">
-        <v>56</v>
+      <c r="F96" t="n">
+        <v>0</v>
       </c>
       <c r="G96" t="n">
         <v>0</v>
@@ -15705,7 +15699,7 @@
     </row>
     <row r="97" spans="1:51">
       <c r="A97" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B97" t="n">
         <v>7.03174</v>
@@ -15719,8 +15713,8 @@
       <c r="E97" t="n">
         <v>91</v>
       </c>
-      <c r="F97" t="s">
-        <v>56</v>
+      <c r="F97" t="n">
+        <v>0</v>
       </c>
       <c r="G97" t="n">
         <v>0</v>
@@ -15860,7 +15854,7 @@
     </row>
     <row r="98" spans="1:51">
       <c r="A98" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B98" t="n">
         <v>6.31101</v>
@@ -15874,8 +15868,8 @@
       <c r="E98" t="n">
         <v>96</v>
       </c>
-      <c r="F98" t="s">
-        <v>56</v>
+      <c r="F98" t="n">
+        <v>0</v>
       </c>
       <c r="G98" t="n">
         <v>0</v>
@@ -16015,7 +16009,7 @@
     </row>
     <row r="99" spans="1:51">
       <c r="A99" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B99" t="n">
         <v>5.41101</v>
@@ -16029,8 +16023,8 @@
       <c r="E99" t="n">
         <v>90</v>
       </c>
-      <c r="F99" t="s">
-        <v>56</v>
+      <c r="F99" t="n">
+        <v>0</v>
       </c>
       <c r="G99" t="n">
         <v>0</v>
@@ -16170,7 +16164,7 @@
     </row>
     <row r="100" spans="1:51">
       <c r="A100" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B100" t="n">
         <v>3.6937</v>
@@ -16184,8 +16178,8 @@
       <c r="E100" t="n">
         <v>90</v>
       </c>
-      <c r="F100" t="s">
-        <v>56</v>
+      <c r="F100" t="n">
+        <v>0</v>
       </c>
       <c r="G100" t="n">
         <v>0</v>
@@ -16325,7 +16319,7 @@
     </row>
     <row r="101" spans="1:51">
       <c r="A101" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B101" t="n">
         <v>6.31101</v>
@@ -16339,8 +16333,8 @@
       <c r="E101" t="n">
         <v>86</v>
       </c>
-      <c r="F101" t="s">
-        <v>56</v>
+      <c r="F101" t="n">
+        <v>0</v>
       </c>
       <c r="G101" t="n">
         <v>0</v>
